--- a/HR_Candidate_Database.xlsx
+++ b/HR_Candidate_Database.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Candidates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Detailed_Fields" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -506,7 +507,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Human Resources, Master, Business Administration, MBA, Bachelor</t>
+          <t>Bachelor, MBA, Business Administration, Human Resources, Master</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -547,7 +548,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Computer Science, Bachelor</t>
+          <t>Bachelor, Computer Science</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -588,7 +589,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Business Administration, Marketing, Bachelor</t>
+          <t>Bachelor, Marketing, Business Administration</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -641,6 +642,751 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Candidate_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Indumawithanage1@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+94 70 198 7390</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Python, Java, JavaScript, SQL, React, Node.js, AWS, Docker, Git, Leadership, Communication, Problem Solving, Project Management</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Computer Science, B.A, Diploma</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sri Lanka Induma Withanage</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Induma Withanage.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>john.smith@email.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>+1-555-123-4567</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Python, Java, JavaScript, SQL, React, Node.js, Django, Flask, AWS, Docker, Kubernetes, Git, Google Analytics, Leadership, Team Management, Problem Solving</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bachelor, Computer Science</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>John Michael Smith</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sample_resume_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sarah.johnson@hr-pro.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>(555) 987-6543</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AWS, Recruitment, Labor Laws, Employee Relations, HRMS, Talent Acquisition, Performance Management, Onboarding, HR Analytics, Excel, Leadership, Communication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bachelor, MBA, Business Administration, Human Resources, Master</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>sample_resume_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>michael.rodriguez@marketing.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+1 (555) 234-5678</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Git, Digital Marketing, SEO, SEM, Google Analytics, Campaigns, Social Media, Content Marketing, Email Marketing, PPC, Brand Management, Audit, Excel</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Bachelor, Marketing, Business Administration</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>sample_resume_3.txt</t>
         </is>
       </c>
     </row>

--- a/HR_Candidate_Database.xlsx
+++ b/HR_Candidate_Database.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,164 +484,328 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sarah.johnson@hr-pro.com</t>
+          <t>sarah.johnson@email.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(555) 987-6543</t>
+          <t>+1-555-0202</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AWS, Recruitment, Labor Laws, Employee Relations, HRMS, Talent Acquisition, Performance Management, Onboarding, HR Analytics, Excel, Leadership, Communication</t>
+          <t>AWS, Recruitment, Labor Laws, Employee Relations, HRMS, Talent Acquisition, Performance Management, Onboarding, HR Analytics, Leadership, Communication, Team Management, Problem Solving</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bachelor, MBA, Business Administration, Human Resources, Master</t>
+          <t>MBA, Master, Bachelor, Human Resources, Business Administration</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>sarah_johnson_hr_manager.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>john.smith@email.com</t>
+          <t>emily.davis@email.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+1-555-123-4567</t>
+          <t>+1-555-0404</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Python, Java, JavaScript, SQL, React, Node.js, Django, Flask, AWS, Docker, Kubernetes, Git, Google Analytics, Leadership, Team Management, Problem Solving</t>
+          <t>Invoicing, Taxation, Audit, Financial Reporting, Excel, QuickBooks, SAP, Budgeting, Forecasting, GAAP, Financial Analysis, Leadership</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bachelor, Computer Science</t>
+          <t>Bachelor, Master</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>LISA WANG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>michael.rodriguez@marketing.com</t>
+          <t>lisa.wang@email.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1 (555) 234-5678</t>
+          <t>+1-555-0606</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Git, Digital Marketing, SEO, SEM, Google Analytics, Campaigns, Social Media, Content Marketing, Email Marketing, PPC, Brand Management, Audit, Excel</t>
+          <t>Git, Excel, QuickBooks, SAP, Leadership, Communication, Problem Solving, Project Management</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bachelor, Marketing, Business Administration</t>
+          <t>Business Administration, Bachelor, MBA, Master</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>lisa_wang_project_manager.txt</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indumawithanage1@gmail.com</t>
+          <t>david.rodriguez@email.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+94 70 198 7390</t>
+          <t>+1-555-0505</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python, Java, SQL, AWS, Azure, Docker, Git, Social Media, Excel, Forecasting, Leadership</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bachelor, Engineering, Certificate, Master</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>85</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>david_rodriguez_data_scientist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>michael.chen@email.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+1-555-0303</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>13</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Python, Java, JavaScript, SQL, React, Node.js, AWS, Docker, Git, Leadership, Communication, Problem Solving, Project Management</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Computer Science, B.A, Diploma</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>81</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Induma Withanage.pdf</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Git, Digital Marketing, SEO, SEM, Google Analytics, Campaigns, Social Media, Content Marketing, Email Marketing, PPC, Brand Management, Communication, Project Management</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bachelor, Marketing, Business Administration</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Git Software</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>john.smith@email.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+1-555-0101</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python, Java, JavaScript, C++, SQL, React, Angular, Node.js, Django, Flask, Spring, AWS, Azure, Docker, Kubernetes, Git</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bachelor, Computer Science</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>john_smith_software_engineer.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sahan Bhanuka Bandaranayake</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sahanbhanuka10@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+94 77 366 8175</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python, Java, JavaScript, SQL, React, Node.js, Flask, AWS, Docker, Git, SEM, Leadership, Communication</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B.A, M.Com, Computer Science, Certificate, Diploma, Engineering</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>nisansala.ruwanpathirana0@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+94 76 217 0336</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python, Java, JavaScript, SQL, Git, Excel, Communication, Project Management</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B.A, B.Sc, Master, Certificate, Diploma, Engineering</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>62</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
         </is>
       </c>
     </row>
@@ -656,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,7 +853,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -699,19 +863,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -721,19 +885,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Indumawithanage1@gmail.com</t>
+          <t>sahanbhanuka10@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -743,19 +907,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+94 70 198 7390</t>
+          <t>+94 77 366 8175</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -765,19 +929,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Python, Java, JavaScript, SQL, React, Node.js, AWS, Docker, Git, Leadership, Communication, Problem Solving, Project Management</t>
+          <t>Python, Java, JavaScript, SQL, React, Node.js, Flask, AWS, Docker, Git, SEM, Leadership, Communication</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -792,14 +956,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -809,19 +973,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Computer Science, B.A, Diploma</t>
+          <t>B.A, M.Com, Computer Science, Certificate, Diploma, Engineering</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -831,19 +995,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sri Lanka Induma Withanage</t>
+          <t>Sahan Bhanuka Bandaranayake</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -853,19 +1017,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Induma Withanage.pdf</t>
+          <t>CV_Sahan-Bhanuka-Bandaranayake_DS.pdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -875,19 +1039,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -897,19 +1061,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>john.smith@email.com</t>
+          <t>david.rodriguez@email.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -919,19 +1083,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+1-555-123-4567</t>
+          <t>+1-555-0505</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -941,19 +1105,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Python, Java, JavaScript, SQL, React, Node.js, Django, Flask, AWS, Docker, Kubernetes, Git, Google Analytics, Leadership, Team Management, Problem Solving</t>
+          <t>Python, Java, SQL, AWS, Azure, Docker, Git, Social Media, Excel, Forecasting, Leadership</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -963,19 +1127,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -985,19 +1149,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bachelor, Computer Science</t>
+          <t>Bachelor, Engineering, Certificate, Master</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1007,19 +1171,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>John Michael Smith</t>
+          <t>DAVID RODRIGUEZ Data</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1029,19 +1193,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sample_resume_1.txt</t>
+          <t>david_rodriguez_data_scientist.txt</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1051,19 +1215,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1073,19 +1237,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sarah.johnson@hr-pro.com</t>
+          <t>emily.davis@email.com</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1095,19 +1259,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(555) 987-6543</t>
+          <t>+1-555-0404</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1117,19 +1281,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AWS, Recruitment, Labor Laws, Employee Relations, HRMS, Talent Acquisition, Performance Management, Onboarding, HR Analytics, Excel, Leadership, Communication</t>
+          <t>Invoicing, Taxation, Audit, Financial Reporting, Excel, QuickBooks, SAP, Budgeting, Forecasting, GAAP, Financial Analysis, Leadership</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1144,14 +1308,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1161,19 +1325,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bachelor, MBA, Business Administration, Human Resources, Master</t>
+          <t>Bachelor, Master</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1183,19 +1347,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>EMILY DAVIS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1205,19 +1369,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>sample_resume_2.txt</t>
+          <t>emily_davis_accountant.txt</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1227,19 +1391,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1249,19 +1413,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>michael.rodriguez@marketing.com</t>
+          <t>john.smith@email.com</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1271,19 +1435,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>+1 (555) 234-5678</t>
+          <t>+1-555-0101</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1293,19 +1457,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Git, Digital Marketing, SEO, SEM, Google Analytics, Campaigns, Social Media, Content Marketing, Email Marketing, PPC, Brand Management, Audit, Excel</t>
+          <t>Python, Java, JavaScript, C++, SQL, React, Angular, Node.js, Django, Flask, Spring, AWS, Azure, Docker, Kubernetes, Git</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1315,19 +1479,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1337,19 +1501,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bachelor, Marketing, Business Administration</t>
+          <t>Bachelor, Computer Science</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1359,19 +1523,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>═══════════════════════════════════════════════════════════ KEY SKILLS</t>
+          <t>Git Software</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1381,12 +1545,716 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>sample_resume_3.txt</t>
+          <t>john_smith_software_engineer.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>lisa.wang@email.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+1-555-0606</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Git, Excel, QuickBooks, SAP, Leadership, Communication, Problem Solving, Project Management</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Business Administration, Bachelor, MBA, Master</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LISA WANG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>lisa_wang_project_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>michael.chen@email.com</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>+1-555-0303</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Git, Digital Marketing, SEO, SEM, Google Analytics, Campaigns, Social Media, Content Marketing, Email Marketing, PPC, Brand Management, Communication, Project Management</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Bachelor, Marketing, Business Administration</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MICHAEL CHEN</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>michael_chen_marketing_specialist.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>nisansala.ruwanpathirana0@gmail.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>+94 76 217 0336</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Python, Java, JavaScript, SQL, Git, Excel, Communication, Project Management</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B.A, B.Sc, Master, Certificate, Diploma, Engineering</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Nisansala_Ruwan_Pathirana_CV-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>sarah.johnson@email.com</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>+1-555-0202</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>AWS, Recruitment, Labor Laws, Employee Relations, HRMS, Talent Acquisition, Performance Management, Onboarding, HR Analytics, Leadership, Communication, Team Management, Problem Solving</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Skills_Count</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MBA, Master, Bachelor, Human Resources, Business Administration</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Experience_Years</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Relevance_Score</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>sarah_johnson_hr_manager.txt</t>
         </is>
       </c>
     </row>
